--- a/data/production.xlsx
+++ b/data/production.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\Documents\PAMGMT\economics\data\ism-manufacturing\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\davidallen\OneDrive\PAMGMT\Economics\data\ism-manufacturing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,6 +101,14 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bloomberg.rtd">
+      <tp t="s">
+        <v>Last Price</v>
+        <stp/>
+        <stp>##V3_BFIELDINFOV12</stp>
+        <stp>[production.xlsx]Sheet1!R5C2</stp>
+        <stp>PX_LAST</stp>
+        <tr r="B5" s="1"/>
+      </tp>
       <tp>
         <v>17563</v>
         <stp/>
@@ -109,22 +117,12 @@
         <stp>PX_LAST</stp>
         <stp>1/1/1900</stp>
         <stp/>
-        <stp>[production-index.xlsx]Sheet1!R7C1</stp>
+        <stp>[production.xlsx]Sheet1!R7C1</stp>
         <stp>Dir=V</stp>
         <stp>Per=M</stp>
         <stp>Dts=S</stp>
-        <stp>cols=2;rows=864</stp>
+        <stp>cols=2;rows=869</stp>
         <tr r="A7" s="1"/>
-      </tp>
-    </main>
-    <main first="bloomberg.rtd">
-      <tp t="s">
-        <v>Last Price</v>
-        <stp/>
-        <stp>##V3_BFIELDINFOV12</stp>
-        <stp>[production-index.xlsx]Sheet1!R5C2</stp>
-        <stp>PX_LAST</stp>
-        <tr r="B5" s="1"/>
       </tp>
     </main>
   </volType>
@@ -394,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B870"/>
+  <dimension ref="A1:B875"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,7 +435,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=864")</f>
+        <f>_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","Per=M","Dts=S","cols=2;rows=869")</f>
         <v>17563</v>
       </c>
       <c r="B7">
@@ -6585,7 +6583,7 @@
         <v>40939</v>
       </c>
       <c r="B775">
-        <v>53.9</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -6593,7 +6591,7 @@
         <v>40968</v>
       </c>
       <c r="B776">
-        <v>57.4</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -6601,7 +6599,7 @@
         <v>40999</v>
       </c>
       <c r="B777">
-        <v>56.8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
@@ -6609,7 +6607,7 @@
         <v>41029</v>
       </c>
       <c r="B778">
-        <v>57.1</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
@@ -6617,7 +6615,7 @@
         <v>41060</v>
       </c>
       <c r="B779">
-        <v>55.5</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -6625,7 +6623,7 @@
         <v>41090</v>
       </c>
       <c r="B780">
-        <v>52.7</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
@@ -6633,7 +6631,7 @@
         <v>41121</v>
       </c>
       <c r="B781">
-        <v>50.8</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
@@ -6641,7 +6639,7 @@
         <v>41152</v>
       </c>
       <c r="B782">
-        <v>49.8</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -6649,7 +6647,7 @@
         <v>41182</v>
       </c>
       <c r="B783">
-        <v>51.8</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
@@ -6657,7 +6655,7 @@
         <v>41213</v>
       </c>
       <c r="B784">
-        <v>49.8</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -6665,7 +6663,7 @@
         <v>41243</v>
       </c>
       <c r="B785">
-        <v>50.2</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -6673,7 +6671,7 @@
         <v>41274</v>
       </c>
       <c r="B786">
-        <v>51</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
@@ -6689,7 +6687,7 @@
         <v>41333</v>
       </c>
       <c r="B788">
-        <v>56.9</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
@@ -6697,7 +6695,7 @@
         <v>41364</v>
       </c>
       <c r="B789">
-        <v>54.4</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -6705,7 +6703,7 @@
         <v>41394</v>
       </c>
       <c r="B790">
-        <v>51.2</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -6713,7 +6711,7 @@
         <v>41425</v>
       </c>
       <c r="B791">
-        <v>53</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
@@ -6721,7 +6719,7 @@
         <v>41455</v>
       </c>
       <c r="B792">
-        <v>54.7</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -6729,7 +6727,7 @@
         <v>41486</v>
       </c>
       <c r="B793">
-        <v>60.2</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -6737,7 +6735,7 @@
         <v>41517</v>
       </c>
       <c r="B794">
-        <v>61.7</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -6745,7 +6743,7 @@
         <v>41547</v>
       </c>
       <c r="B795">
-        <v>57.9</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
@@ -6753,7 +6751,7 @@
         <v>41578</v>
       </c>
       <c r="B796">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
@@ -6761,7 +6759,7 @@
         <v>41608</v>
       </c>
       <c r="B797">
-        <v>60.2</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -6769,7 +6767,7 @@
         <v>41639</v>
       </c>
       <c r="B798">
-        <v>60.1</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -6777,7 +6775,7 @@
         <v>41670</v>
       </c>
       <c r="B799">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -6785,7 +6783,7 @@
         <v>41698</v>
       </c>
       <c r="B800">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -6801,7 +6799,7 @@
         <v>41759</v>
       </c>
       <c r="B802">
-        <v>56.7</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -6809,7 +6807,7 @@
         <v>41790</v>
       </c>
       <c r="B803">
-        <v>61.2</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
@@ -6817,7 +6815,7 @@
         <v>41820</v>
       </c>
       <c r="B804">
-        <v>59</v>
+        <v>59.6</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -6833,7 +6831,7 @@
         <v>41882</v>
       </c>
       <c r="B806">
-        <v>62</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -6841,7 +6839,7 @@
         <v>41912</v>
       </c>
       <c r="B807">
-        <v>61.1</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -6849,7 +6847,7 @@
         <v>41943</v>
       </c>
       <c r="B808">
-        <v>61.3</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
@@ -6857,7 +6855,7 @@
         <v>41973</v>
       </c>
       <c r="B809">
-        <v>61.4</v>
+        <v>59.8</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -6865,7 +6863,7 @@
         <v>42004</v>
       </c>
       <c r="B810">
-        <v>56.7</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
@@ -6873,7 +6871,7 @@
         <v>42035</v>
       </c>
       <c r="B811">
-        <v>57.7</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,7 +6879,7 @@
         <v>42063</v>
       </c>
       <c r="B812">
-        <v>54</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
@@ -6889,7 +6887,7 @@
         <v>42094</v>
       </c>
       <c r="B813">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
@@ -6897,7 +6895,7 @@
         <v>42124</v>
       </c>
       <c r="B814">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -6905,7 +6903,7 @@
         <v>42155</v>
       </c>
       <c r="B815">
-        <v>55.3</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
@@ -6913,7 +6911,7 @@
         <v>42185</v>
       </c>
       <c r="B816">
-        <v>52.5</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -6921,7 +6919,7 @@
         <v>42216</v>
       </c>
       <c r="B817">
-        <v>54</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -6929,7 +6927,7 @@
         <v>42247</v>
       </c>
       <c r="B818">
-        <v>53.1</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
@@ -6937,7 +6935,7 @@
         <v>42277</v>
       </c>
       <c r="B819">
-        <v>51.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
@@ -6945,7 +6943,7 @@
         <v>42308</v>
       </c>
       <c r="B820">
-        <v>53.2</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
@@ -6953,7 +6951,7 @@
         <v>42338</v>
       </c>
       <c r="B821">
-        <v>49.2</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -6961,7 +6959,7 @@
         <v>42369</v>
       </c>
       <c r="B822">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
@@ -6969,7 +6967,7 @@
         <v>42400</v>
       </c>
       <c r="B823">
-        <v>50.4</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -6977,7 +6975,7 @@
         <v>42429</v>
       </c>
       <c r="B824">
-        <v>52</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
@@ -6985,7 +6983,7 @@
         <v>42460</v>
       </c>
       <c r="B825">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
@@ -6993,7 +6991,7 @@
         <v>42490</v>
       </c>
       <c r="B826">
-        <v>54.4</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
@@ -7001,7 +6999,7 @@
         <v>42521</v>
       </c>
       <c r="B827">
-        <v>52.8</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
@@ -7009,7 +7007,7 @@
         <v>42551</v>
       </c>
       <c r="B828">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
@@ -7017,7 +7015,7 @@
         <v>42582</v>
       </c>
       <c r="B829">
-        <v>55.3</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
@@ -7025,7 +7023,7 @@
         <v>42613</v>
       </c>
       <c r="B830">
-        <v>49.6</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
@@ -7033,7 +7031,7 @@
         <v>42643</v>
       </c>
       <c r="B831">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
@@ -7041,7 +7039,7 @@
         <v>42674</v>
       </c>
       <c r="B832">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -7049,7 +7047,7 @@
         <v>42704</v>
       </c>
       <c r="B833">
-        <v>55</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
@@ -7057,7 +7055,7 @@
         <v>42735</v>
       </c>
       <c r="B834">
-        <v>59</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -7065,7 +7063,7 @@
         <v>42766</v>
       </c>
       <c r="B835">
-        <v>61.4</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -7073,7 +7071,7 @@
         <v>42794</v>
       </c>
       <c r="B836">
-        <v>61.8</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -7081,7 +7079,7 @@
         <v>42825</v>
       </c>
       <c r="B837">
-        <v>57.3</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
@@ -7089,7 +7087,7 @@
         <v>42855</v>
       </c>
       <c r="B838">
-        <v>60.1</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -7097,7 +7095,7 @@
         <v>42886</v>
       </c>
       <c r="B839">
-        <v>57.5</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -7105,7 +7103,7 @@
         <v>42916</v>
       </c>
       <c r="B840">
-        <v>60.7</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -7121,7 +7119,7 @@
         <v>42978</v>
       </c>
       <c r="B842">
-        <v>61.2</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
@@ -7129,7 +7127,7 @@
         <v>43008</v>
       </c>
       <c r="B843">
-        <v>61.4</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
@@ -7137,7 +7135,7 @@
         <v>43039</v>
       </c>
       <c r="B844">
-        <v>60.4</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -7145,7 +7143,7 @@
         <v>43069</v>
       </c>
       <c r="B845">
-        <v>63.7</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
@@ -7153,7 +7151,7 @@
         <v>43100</v>
       </c>
       <c r="B846">
-        <v>65</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -7161,7 +7159,7 @@
         <v>43131</v>
       </c>
       <c r="B847">
-        <v>65.5</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -7169,7 +7167,7 @@
         <v>43159</v>
       </c>
       <c r="B848">
-        <v>62</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
@@ -7177,7 +7175,7 @@
         <v>43190</v>
       </c>
       <c r="B849">
-        <v>61.2</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -7185,7 +7183,7 @@
         <v>43220</v>
       </c>
       <c r="B850">
-        <v>58.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -7193,7 +7191,7 @@
         <v>43251</v>
       </c>
       <c r="B851">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -7201,7 +7199,7 @@
         <v>43281</v>
       </c>
       <c r="B852">
-        <v>62</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
@@ -7209,7 +7207,7 @@
         <v>43312</v>
       </c>
       <c r="B853">
-        <v>59.1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -7217,7 +7215,7 @@
         <v>43343</v>
       </c>
       <c r="B854">
-        <v>62.4</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
@@ -7225,7 +7223,7 @@
         <v>43373</v>
       </c>
       <c r="B855">
-        <v>63.1</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -7233,7 +7231,7 @@
         <v>43404</v>
       </c>
       <c r="B856">
-        <v>59.3</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
@@ -7241,7 +7239,7 @@
         <v>43434</v>
       </c>
       <c r="B857">
-        <v>59.9</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -7249,7 +7247,7 @@
         <v>43465</v>
       </c>
       <c r="B858">
-        <v>54.1</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
@@ -7257,7 +7255,7 @@
         <v>43496</v>
       </c>
       <c r="B859">
-        <v>60.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -7265,7 +7263,7 @@
         <v>43524</v>
       </c>
       <c r="B860">
-        <v>54.8</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
@@ -7273,7 +7271,7 @@
         <v>43555</v>
       </c>
       <c r="B861">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -7281,7 +7279,7 @@
         <v>43585</v>
       </c>
       <c r="B862">
-        <v>52.3</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -7289,7 +7287,7 @@
         <v>43616</v>
       </c>
       <c r="B863">
-        <v>51.3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
@@ -7297,7 +7295,7 @@
         <v>43646</v>
       </c>
       <c r="B864">
-        <v>54.1</v>
+        <v>52.4</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
@@ -7305,7 +7303,7 @@
         <v>43677</v>
       </c>
       <c r="B865">
-        <v>50.8</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
@@ -7313,7 +7311,7 @@
         <v>43708</v>
       </c>
       <c r="B866">
-        <v>49.5</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
@@ -7321,7 +7319,7 @@
         <v>43738</v>
       </c>
       <c r="B867">
-        <v>47.3</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
@@ -7329,7 +7327,7 @@
         <v>43769</v>
       </c>
       <c r="B868">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -7337,7 +7335,7 @@
         <v>43799</v>
       </c>
       <c r="B869">
-        <v>49.1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
@@ -7345,7 +7343,47 @@
         <v>43830</v>
       </c>
       <c r="B870">
-        <v>43.2</v>
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B871">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B872">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A873" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B873">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B874">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B875">
+        <v>33.200000000000003</v>
       </c>
     </row>
   </sheetData>
